--- a/data/trans_bre/IP1002-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP1002-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>91,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-37,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-32,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-10,03%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 2,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 1,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 1,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 1,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-60,92; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-80,94; 153,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-83,76; 157,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-57,01%</t>
+          <t>91,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,96%</t>
+          <t>-37,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>-32,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-11,51%</t>
+          <t>-10,03%</t>
         </is>
       </c>
     </row>
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 0,88</t>
+          <t>-0,7; 2,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,49</t>
+          <t>-3,27; 1,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,92</t>
+          <t>-2,94; 1,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,34</t>
+          <t>-1,58; 1,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 497,35</t>
+          <t>-60,92; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,94; 153,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,76; 157,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,56%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,63; 2,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,97; 1,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,66; 1,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; 2,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,23; 135,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,18; 380,26</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>37,63%</t>
+          <t>-57,01%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-32,51%</t>
+          <t>-3,96%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-49,98%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-12,56%</t>
+          <t>-11,51%</t>
         </is>
       </c>
     </row>
@@ -1068,32 +1068,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,25</t>
+          <t>-2,91; 0,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 1,73</t>
+          <t>-1,76; 1,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 1,04</t>
+          <t>-1,42; 1,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 2,43</t>
+          <t>-1,78; 1,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 497,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-83,23; 135,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-87,18; 380,26</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1002-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP1002-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 4,61</t>
+          <t>-1,08; 4,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 1,6</t>
+          <t>-5,83; 1,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,76</t>
+          <t>-1,05; 2,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 4,32</t>
+          <t>-2,45; 5,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-89,4; 171,29</t>
+          <t>-100,0; 133,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 2,88</t>
+          <t>-0,93; 2,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 1,42</t>
+          <t>-3,31; 1,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 1,16</t>
+          <t>-2,92; 1,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 1,42</t>
+          <t>-1,47; 1,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-60,92; —</t>
+          <t>-73,63; 864,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-80,94; 153,33</t>
+          <t>-82,05; 141,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-83,76; 157,27</t>
+          <t>-82,56; 137,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,25</t>
+          <t>-1,46; 2,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 1,73</t>
+          <t>-3,93; 1,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 1,04</t>
+          <t>-3,0; 0,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 2,43</t>
+          <t>-3,64; 2,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-83,23; 135,17</t>
+          <t>-85,69; 104,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-87,18; 380,26</t>
+          <t>-85,95; 316,96</t>
         </is>
       </c>
     </row>
@@ -1068,27 +1068,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 0,88</t>
+          <t>-3,14; 0,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,49</t>
+          <t>-1,77; 1,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,92</t>
+          <t>-1,37; 2,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,34</t>
+          <t>-1,88; 1,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 497,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,12</t>
+          <t>-0,74; 1,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 0,29</t>
+          <t>-2,11; 0,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 0,58</t>
+          <t>-1,19; 0,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,21</t>
+          <t>-1,04; 1,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-50,8; 155,5</t>
+          <t>-45,44; 179,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,55; 21,2</t>
+          <t>-67,94; 17,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-68,12; 70,29</t>
+          <t>-65,87; 79,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-60,14; 165,12</t>
+          <t>-56,58; 153,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1002-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP1002-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,21</t>
+          <t>-1,02; 4,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 1,93</t>
+          <t>-5,94; 1,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,84</t>
+          <t>-1,06; 2,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 5,02</t>
+          <t>-2,53; 4,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 133,26</t>
+          <t>-91,63; 195,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 2,75</t>
+          <t>-0,72; 2,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 1,32</t>
+          <t>-3,24; 1,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 1,08</t>
+          <t>-3,28; 1,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,52</t>
+          <t>-1,49; 1,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-73,63; 864,54</t>
+          <t>-63,19; 818,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-82,05; 141,54</t>
+          <t>-84,5; 133,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-82,56; 137,27</t>
+          <t>-85,69; 150,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 2,49</t>
+          <t>-1,56; 2,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 1,41</t>
+          <t>-3,8; 1,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 0,98</t>
+          <t>-2,83; 0,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,45</t>
+          <t>-3,51; 2,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,69; 104,78</t>
+          <t>-82,83; 161,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-85,95; 316,96</t>
+          <t>-85,07; 341,09</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 0,6</t>
+          <t>-3,09; 0,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 1,44</t>
+          <t>-1,56; 1,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,24</t>
+          <t>-1,37; 2,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 1,4</t>
+          <t>-1,65; 1,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,26</t>
+          <t>-0,76; 1,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 0,25</t>
+          <t>-2,07; 0,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 0,65</t>
+          <t>-1,18; 0,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,14</t>
+          <t>-1,03; 1,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,44; 179,97</t>
+          <t>-45,66; 161,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-67,94; 17,31</t>
+          <t>-69,15; 16,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-65,87; 79,39</t>
+          <t>-62,9; 79,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-56,58; 153,96</t>
+          <t>-55,56; 153,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1002-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP1002-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>118,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,09%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-0,83; 3,42</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-5,0; 1,25</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 2,28</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 3,77</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 122,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>117,73%</t>
+          <t>91,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-49,77%</t>
+          <t>-37,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>104,79%</t>
+          <t>-32,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>50,57%</t>
+          <t>-18,81%</t>
         </is>
       </c>
     </row>
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 4,07</t>
+          <t>-0,7; 2,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 1,89</t>
+          <t>-3,27; 1,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,74</t>
+          <t>-2,94; 1,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 4,18</t>
+          <t>-1,73; 1,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,92; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-91,63; 195,68</t>
+          <t>-80,94; 153,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,76; 157,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,5%</t>
+          <t>37,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-37,52%</t>
+          <t>-32,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-32,96%</t>
+          <t>-49,98%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-10,03%</t>
+          <t>-22,43%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,79</t>
+          <t>-1,63; 2,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,32</t>
+          <t>-3,97; 1,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 1,07</t>
+          <t>-2,66; 1,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,43</t>
+          <t>-3,75; 2,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-63,19; 818,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-84,5; 133,96</t>
+          <t>-83,23; 135,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-85,69; 150,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,42; 294,61</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,63%</t>
+          <t>-57,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-32,51%</t>
+          <t>-3,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-49,98%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-12,56%</t>
+          <t>-12,75%</t>
         </is>
       </c>
     </row>
@@ -968,34 +968,34 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 2,28</t>
+          <t>-2,91; 0,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 1,64</t>
+          <t>-1,76; 1,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 0,79</t>
+          <t>-1,42; 1,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 2,46</t>
+          <t>-1,77; 1,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 497,35</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-82,83; 161,8</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-85,07; 341,09</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1040,22 +1040,22 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-57,01%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,96%</t>
+          <t>-36,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>-19,05%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-11,51%</t>
+          <t>-6,64%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 0,81</t>
+          <t>-0,76; 1,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,65</t>
+          <t>-2,07; 0,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,03</t>
+          <t>-1,22; 0,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 1,4</t>
+          <t>-1,3; 1,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,8; 155,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,55; 21,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,12; 70,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,83; 142,67</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,87</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>19,36%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-36,24%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-19,05%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,12%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,76; 1,25</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,07; 0,24</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,18; 0,63</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-1,03; 1,1</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-45,66; 161,67</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-69,15; 16,92</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-62,9; 79,19</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-55,56; 153,94</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
